--- a/biology/Biologie cellulaire et moléculaire/Mabinline/Mabinline.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Mabinline/Mabinline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mabinlines sont des protéines au goût sucré extraites de la graine du mabinlang (Capparis masaikai Levl.), une plante originaire du Yunnan (province de Chine).
-Quatre protéines homologues ont été identifiées et nommées : mabinline-1, -2, -3 et -4. Mabinline-2 a été la première isolée en 1983[1] et caractérisée dix ans plus tard[2]. Les autres variantes, mabinline-1, -3 and -4 ont été découvertes et caractérisées en 1994[3].
+Quatre protéines homologues ont été identifiées et nommées : mabinline-1, -2, -3 et -4. Mabinline-2 a été la première isolée en 1983 et caractérisée dix ans plus tard. Les autres variantes, mabinline-1, -3 and -4 ont été découvertes et caractérisées en 1994.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les quatre protéines possèdent une structure tertiaire similaire (2 chaînes reliées par des ponts disulfures) dont les séquences des acides aminés sont pratiquement identiques.
 Chaîne A
@@ -525,10 +539,10 @@
 M-2 : QPRRPALRQC CNQLRQVDRP CVCPVLRQAA QQVLQRQIIQ GPQQLRRLFD AARNLPNICN IPNIGACPFR AW
 M-3 : EQRGPALRLC CNQLRQVNKP CVCPVLRQAA HQQLYQGQIE GPRQVRRLFR AARNLPNICK IPAVGRCQFT RW 
 M-4 : EQRGPALRLC CNQLRQVNKP CVCPVLRQAA HQQLYQGQIE GPRQVRRLFR AARNLPNICK IPAVGRCQFT RW
-Séquence des acides aminés des protéines mabinlines (M) homologues, adapté de la base de données des protéines de Swiss-Prot[4],[5],[6],[7].
-Les poids moléculaires respectifs de Mabinline-1, Mabinline-3 and Mabinline-4 sont 12,3 kDa, 12,3 kDa et 11,9 kDa[3].
-Avec un poids moléculaire de 10,4 kDa, mabinline-2 est la plus légère. Sa structure tertiaire consiste en l’assemblage de 2 chaînes protéiques, A et B reliées par 2 ponts disulfures intermoléculaires. La chaîne A est constituée de 33 acides aminés et la chaîne B de 72[2],[8].
-Cette protéine est la plus résistante à la chaleur comparée à ses 3 homologues mais aussi une des plus stables comparée aux autres protéines sucrantes connues[9], et ceci est dû à la présence de ponts disulfures[10].
+Séquence des acides aminés des protéines mabinlines (M) homologues, adapté de la base de données des protéines de Swiss-Prot.
+Les poids moléculaires respectifs de Mabinline-1, Mabinline-3 and Mabinline-4 sont 12,3 kDa, 12,3 kDa et 11,9 kDa.
+Avec un poids moléculaire de 10,4 kDa, mabinline-2 est la plus légère. Sa structure tertiaire consiste en l’assemblage de 2 chaînes protéiques, A et B reliées par 2 ponts disulfures intermoléculaires. La chaîne A est constituée de 33 acides aminés et la chaîne B de 72,.
+Cette protéine est la plus résistante à la chaleur comparée à ses 3 homologues mais aussi une des plus stables comparée aux autres protéines sucrantes connues, et ceci est dû à la présence de ponts disulfures.
 </t>
         </is>
       </c>
@@ -557,14 +571,11 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La principale propriété des mabinlines est leur puissant goût sucré bien supérieur à celui du sucre. Elles sont aussi très stables à la chaleur.
-Saveur sucrée
-Le pouvoir sucrant de la mabinline-2 a été estimé à 100 (à poids égal) et 375 (à concentration égale[2]) soit nettement moins que la thaumatine mais avec un profil sucrant similaire[11]. Les mabinlines homologues (-1, -3 et -4) sont de pouvoir sucrant équivalent à la mabinline-2[3]. 
-Stabilité à la chaleur
-Le pouvoir sucrant de mabinline-2 reste inchangé après incubation à 100 °C pendant 48 heures[2].
-Le pouvoir sucrant des mabinline-3 et -4 reste inchangé après incubation à 80 °C pendant une heure alors que celui de mabinline-1 ne l’est plus dans les mêmes conditions[3],[12]. D’après l’étude menée par Y. Kurihara[3], les différences de stabilité à la chaleur seraient dues à la présence de l’arginine ou de la glutamine en position 47 sur la chaîne B.
 </t>
         </is>
       </c>
@@ -590,12 +601,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Usage alimentaire</t>
+          <t>Propriétés</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mabinline-2 étant une protéine végétale naturelle, très soluble dans l’eau et résistante à la chaleur, a de forte chance de devenir un édulcorant naturel aussi répandu que la thaumatine. Cependant il n’existe pas encore de production industrielle de cette protéine. 
+          <t>Saveur sucrée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pouvoir sucrant de la mabinline-2 a été estimé à 100 (à poids égal) et 375 (à concentration égale) soit nettement moins que la thaumatine mais avec un profil sucrant similaire. Les mabinlines homologues (-1, -3 et -4) sont de pouvoir sucrant équivalent à la mabinline-2. 
 </t>
         </is>
       </c>
@@ -621,14 +638,87 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Propriétés</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Stabilité à la chaleur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pouvoir sucrant de mabinline-2 reste inchangé après incubation à 100 °C pendant 48 heures.
+Le pouvoir sucrant des mabinline-3 et -4 reste inchangé après incubation à 80 °C pendant une heure alors que celui de mabinline-1 ne l’est plus dans les mêmes conditions,. D’après l’étude menée par Y. Kurihara, les différences de stabilité à la chaleur seraient dues à la présence de l’arginine ou de la glutamine en position 47 sur la chaîne B.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mabinline</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mabinline</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Usage alimentaire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mabinline-2 étant une protéine végétale naturelle, très soluble dans l’eau et résistante à la chaleur, a de forte chance de devenir un édulcorant naturel aussi répandu que la thaumatine. Cependant il n’existe pas encore de production industrielle de cette protéine. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mabinline</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mabinline</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Durant la dernière décennie, des essais de production industrielle de la Mabinline-2  par génie génétique et synthèse ont été tentées. 
-En 1996, la protéine a été exprimée dans une pomme de terre transgénique, cependant aucun résultat n’a été encore publié[13]. Cependant la même équipe a déposé un brevet protégeant la fabrication de la protéine par clonage et séquencement génétique en 2000[14].
-En 1998 la protéine a été synthétisée, cependant le produit de synthèse était sucré et astringent[8].
+En 1996, la protéine a été exprimée dans une pomme de terre transgénique, cependant aucun résultat n’a été encore publié. Cependant la même équipe a déposé un brevet protégeant la fabrication de la protéine par clonage et séquencement génétique en 2000.
+En 1998 la protéine a été synthétisée, cependant le produit de synthèse était sucré et astringent.
 </t>
         </is>
       </c>
